--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/工业销售产值(现价).xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/工业销售产值(现价).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>326.12783</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1615.55739</v>
-      </c>
-      <c r="D2" t="n">
-        <v>488.20669</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.0916</v>
-      </c>
-      <c r="F2" t="n">
-        <v>407.23903</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1140.65972</v>
-      </c>
-      <c r="H2" t="n">
-        <v>428.9611</v>
-      </c>
-      <c r="I2" t="n">
-        <v>375.14987</v>
-      </c>
-      <c r="J2" t="n">
-        <v>191.99951</v>
-      </c>
-      <c r="K2" t="n">
-        <v>805.6561</v>
-      </c>
-      <c r="L2" t="n">
-        <v>22933.44988</v>
-      </c>
-      <c r="M2" t="n">
-        <v>161.1864</v>
-      </c>
-      <c r="N2" t="n">
-        <v>358.97744</v>
-      </c>
-      <c r="O2" t="n">
-        <v>640.16497</v>
-      </c>
-      <c r="P2" t="n">
-        <v>286.33546</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.1016</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1084.53932</v>
-      </c>
-      <c r="S2" t="n">
-        <v>201.09532</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>272.84401</v>
-      </c>
-      <c r="V2" t="n">
-        <v>7.26446</v>
-      </c>
-      <c r="W2" t="n">
-        <v>49.90549</v>
-      </c>
-      <c r="X2" t="n">
-        <v>7.19037</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>710.61298</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>5315.66063</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1553.95093</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>741.83378</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>244.14178</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>158.48979</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1058.83588</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>7.17501</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>477.87625</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>945.99045</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>626.66741</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>17.07964</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>544.77978</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>840.1998</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>501.29275</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>334.36699</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.24235</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>402.81272</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1982.12672</v>
-      </c>
-      <c r="D3" t="n">
-        <v>546.05566</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>447.04729</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1311.28351</v>
-      </c>
-      <c r="H3" t="n">
-        <v>209.89722</v>
-      </c>
-      <c r="I3" t="n">
-        <v>424.9384</v>
-      </c>
-      <c r="J3" t="n">
-        <v>235.73637</v>
-      </c>
-      <c r="K3" t="n">
-        <v>897.68534</v>
-      </c>
-      <c r="L3" t="n">
-        <v>26577.14025</v>
-      </c>
-      <c r="M3" t="n">
-        <v>193.91248</v>
-      </c>
-      <c r="N3" t="n">
-        <v>398.23106</v>
-      </c>
-      <c r="O3" t="n">
-        <v>757.84121</v>
-      </c>
-      <c r="P3" t="n">
-        <v>277.01206</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4.73174</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1160.47562</v>
-      </c>
-      <c r="S3" t="n">
-        <v>208.85789</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>303.02107</v>
-      </c>
-      <c r="V3" t="n">
-        <v>11.84082</v>
-      </c>
-      <c r="W3" t="n">
-        <v>44.50432</v>
-      </c>
-      <c r="X3" t="n">
-        <v>15.73754</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>894.77286</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>6540.27344</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1777.73658</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>835.57904</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>416.0543</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>208.84983</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1174.65465</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>6.11817</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>565.5651800000001</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>997.7103</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>738.27131</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>15.32029</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>636.50925</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>940.0877400000001</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>533.59041</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>460.74535</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.55251</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>530.53751</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2631.25197</v>
-      </c>
-      <c r="D4" t="n">
-        <v>693.33224</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>521.95046</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1560.00463</v>
-      </c>
-      <c r="H4" t="n">
-        <v>282.78384</v>
-      </c>
-      <c r="I4" t="n">
-        <v>484.36644</v>
-      </c>
-      <c r="J4" t="n">
-        <v>271.63309</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1027.48289</v>
-      </c>
-      <c r="L4" t="n">
-        <v>31902.50932</v>
-      </c>
-      <c r="M4" t="n">
-        <v>243.9796</v>
-      </c>
-      <c r="N4" t="n">
-        <v>453.88236</v>
-      </c>
-      <c r="O4" t="n">
-        <v>982.02685</v>
-      </c>
-      <c r="P4" t="n">
-        <v>334.44224</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5.65722</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1290.8664</v>
-      </c>
-      <c r="S4" t="n">
-        <v>205.55929</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>383.69416</v>
-      </c>
-      <c r="V4" t="n">
-        <v>9.043620000000001</v>
-      </c>
-      <c r="W4" t="n">
-        <v>63.50623</v>
-      </c>
-      <c r="X4" t="n">
-        <v>23.56195</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1073.78196</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>8158.03072</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1989.57192</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>943.8613800000001</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>477.57156</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>214.40064</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1369.61695</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>13.84195</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>649.88776</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1162.85712</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>836.67884</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>16.75844</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>757.62569</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1156.95001</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>589.72481</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>486.77664</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>2.30544</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
